--- a/www/ig/fhir/mesures/3.0.0/StructureDefinition-mes-observation-steps-by-day.xlsx
+++ b/www/ig/fhir/mesures/3.0.0/StructureDefinition-mes-observation-steps-by-day.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="659">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T16:32:25+01:00</t>
+    <t>2023-03-23T15:01:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1882,7 +1882,10 @@
     <t>Observation.referenceRange.appliesTo</t>
   </si>
   <si>
-    <t>Non utilisé</t>
+    <t>Reference range population</t>
+  </si>
+  <si>
+    <t>Codes to indicate the target population this reference range applies to.  For example, a reference range may be based on the normal population or a particular sex or race.  Multiple `appliesTo`  are interpreted as an "AND" of the target populations.  For example, to represent a target population of African American females, both a code of female and a code for African American would be used.</t>
   </si>
   <si>
     <t>This SHOULD be populated if there is more than one range.  If this element is not present then the normal population is assumed.</t>
@@ -1935,6 +1938,12 @@
 </t>
   </si>
   <si>
+    <t>Used when reporting vital signs panel components</t>
+  </si>
+  <si>
+    <t>Used when reporting vital signs panel components.</t>
+  </si>
+  <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
@@ -1949,6 +1958,12 @@
   <si>
     <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|MolecularSequence|vitalsigns)
 </t>
+  </si>
+  <si>
+    <t>Related measurements the observation is made from</t>
+  </si>
+  <si>
+    <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
     <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.</t>
@@ -13780,13 +13795,13 @@
         <v>596</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>78</v>
@@ -13814,10 +13829,10 @@
         <v>155</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>78</v>
@@ -13870,10 +13885,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13896,17 +13911,17 @@
         <v>78</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>78</v>
@@ -13955,7 +13970,7 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
@@ -13979,7 +13994,7 @@
         <v>78</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>78</v>
@@ -13990,10 +14005,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14019,10 +14034,10 @@
         <v>101</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14073,7 +14088,7 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>76</v>
@@ -14097,7 +14112,7 @@
         <v>580</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>78</v>
@@ -14108,10 +14123,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14134,16 +14149,16 @@
         <v>89</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>596</v>
+        <v>615</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14193,7 +14208,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
@@ -14214,10 +14229,10 @@
         <v>78</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>78</v>
@@ -14228,10 +14243,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14254,16 +14269,16 @@
         <v>89</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>596</v>
+        <v>621</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>596</v>
+        <v>622</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14313,7 +14328,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>76</v>
@@ -14334,10 +14349,10 @@
         <v>78</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>78</v>
@@ -14348,10 +14363,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14377,16 +14392,16 @@
         <v>560</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>78</v>
@@ -14435,7 +14450,7 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>76</v>
@@ -14447,7 +14462,7 @@
         <v>78</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>78</v>
@@ -14456,10 +14471,10 @@
         <v>78</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>78</v>
@@ -14470,10 +14485,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14588,10 +14603,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14708,10 +14723,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14830,10 +14845,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14859,16 +14874,16 @@
         <v>249</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>78</v>
@@ -14917,7 +14932,7 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>88</v>
@@ -14935,7 +14950,7 @@
         <v>78</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>342</v>
@@ -14952,10 +14967,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14978,16 +14993,16 @@
         <v>89</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>411</v>
@@ -15018,28 +15033,28 @@
         <v>241</v>
       </c>
       <c r="Y105" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF105" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>76</v>
@@ -15048,7 +15063,7 @@
         <v>88</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>122</v>
@@ -15057,7 +15072,7 @@
         <v>78</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>416</v>
@@ -15074,10 +15089,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15103,13 +15118,13 @@
         <v>249</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>476</v>
@@ -15161,7 +15176,7 @@
         <v>78</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>76</v>
@@ -15170,7 +15185,7 @@
         <v>88</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>122</v>
@@ -15196,10 +15211,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15283,7 +15298,7 @@
         <v>78</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>76</v>
@@ -15318,10 +15333,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15347,10 +15362,10 @@
         <v>79</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="N108" t="s" s="2">
         <v>563</v>
@@ -15405,7 +15420,7 @@
         <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>76</v>
